--- a/evaluation/loop_exec_option.xlsx
+++ b/evaluation/loop_exec_option.xlsx
@@ -9,8 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="tag_list" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="seed_list" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="seed_list" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="28">
   <si>
     <t xml:space="preserve">branch_name</t>
   </si>
@@ -63,7 +62,7 @@
     <t xml:space="preserve">master</t>
   </si>
   <si>
-    <t xml:space="preserve">default</t>
+    <t xml:space="preserve">sample</t>
   </si>
   <si>
     <t xml:space="preserve">seigot</t>
@@ -78,7 +77,16 @@
     <t xml:space="preserve">https://github.com/seigot/tetris.git</t>
   </si>
   <si>
+    <t xml:space="preserve">train_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train_sample2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ish04d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve">isshy</t>
@@ -90,7 +98,13 @@
     <t xml:space="preserve">ish05g6</t>
   </si>
   <si>
-    <t xml:space="preserve">ish05h3</t>
+    <t xml:space="preserve">refer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
   </si>
 </sst>
 </file>
@@ -233,26 +247,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="46.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="13" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="13" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,25 +347,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H3" s="5" t="n">
         <v>6</v>
@@ -365,32 +379,31 @@
       <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <f aca="false">seed_list!$A$1</f>
-        <v>724</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>6</v>
@@ -404,20 +417,20 @@
       <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>20</v>
+      <c r="L4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="n">
-        <f aca="false">seed_list!$A$2</f>
-        <v>712</v>
+        <f aca="false">seed_list!$B$2</f>
+        <v>620</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>180</v>
@@ -429,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>6</v>
@@ -443,20 +456,20 @@
       <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>20</v>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="n">
-        <f aca="false">seed_list!$A$3</f>
-        <v>327</v>
+        <f aca="false">seed_list!$B$3</f>
+        <v>149</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>180</v>
@@ -468,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>6</v>
@@ -482,20 +495,20 @@
       <c r="K6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>20</v>
+      <c r="L6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="n">
-        <f aca="false">seed_list!$A$4</f>
-        <v>562</v>
+        <f aca="false">seed_list!$B$4</f>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>180</v>
@@ -507,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>6</v>
@@ -521,20 +534,20 @@
       <c r="K7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>20</v>
+      <c r="L7" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="n">
-        <f aca="false">seed_list!$A$5</f>
-        <v>388</v>
+        <f aca="false">seed_list!$B$5</f>
+        <v>270</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>180</v>
@@ -546,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>6</v>
@@ -560,20 +573,20 @@
       <c r="K8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>20</v>
+      <c r="L8" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="n">
-        <f aca="false">seed_list!$A$6</f>
-        <v>518</v>
+        <f aca="false">seed_list!$B$6</f>
+        <v>714</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>180</v>
@@ -585,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>6</v>
@@ -599,20 +612,20 @@
       <c r="K9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>20</v>
+      <c r="L9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="5" t="n">
-        <f aca="false">seed_list!$A$7</f>
-        <v>861</v>
+        <f aca="false">seed_list!$B$7</f>
+        <v>339</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>180</v>
@@ -624,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>6</v>
@@ -638,20 +651,20 @@
       <c r="K10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>20</v>
+      <c r="L10" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="5" t="n">
-        <f aca="false">seed_list!$A$8</f>
-        <v>873</v>
+        <f aca="false">seed_list!$B$8</f>
+        <v>240</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>180</v>
@@ -663,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>6</v>
@@ -677,20 +690,20 @@
       <c r="K11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>20</v>
+      <c r="L11" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="n">
-        <f aca="false">seed_list!$A$9</f>
-        <v>523</v>
+        <f aca="false">seed_list!$B$9</f>
+        <v>804</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>180</v>
@@ -702,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>6</v>
@@ -716,20 +729,20 @@
       <c r="K12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>20</v>
+      <c r="L12" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="5" t="n">
-        <f aca="false">seed_list!$A$10</f>
-        <v>102</v>
+        <f aca="false">seed_list!$B$10</f>
+        <v>531</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>180</v>
@@ -741,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>6</v>
@@ -755,20 +768,20 @@
       <c r="K13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>20</v>
+      <c r="L13" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="5" t="n">
-        <f aca="false">seed_list!$A$1</f>
-        <v>724</v>
+        <f aca="false">seed_list!$B$11</f>
+        <v>348</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>180</v>
@@ -780,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>6</v>
@@ -794,32 +807,32 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>20</v>
+      <c r="L14" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <f aca="false">seed_list!$B$2</f>
+        <v>620</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <f aca="false">seed_list!$A$2</f>
-        <v>712</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>6</v>
@@ -833,32 +846,32 @@
       <c r="K15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>20</v>
+      <c r="L15" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <f aca="false">seed_list!$B$3</f>
+        <v>149</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <f aca="false">seed_list!$A$3</f>
-        <v>327</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>6</v>
@@ -872,32 +885,32 @@
       <c r="K16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>20</v>
+      <c r="L16" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <f aca="false">seed_list!$B$4</f>
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <f aca="false">seed_list!$A$4</f>
-        <v>562</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>6</v>
@@ -911,32 +924,32 @@
       <c r="K17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>20</v>
+      <c r="L17" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <f aca="false">seed_list!$B$5</f>
+        <v>270</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <f aca="false">seed_list!$A$5</f>
-        <v>388</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>6</v>
@@ -950,32 +963,32 @@
       <c r="K18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>20</v>
+      <c r="L18" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <f aca="false">seed_list!$B$6</f>
+        <v>714</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <f aca="false">seed_list!$A$6</f>
-        <v>518</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>6</v>
@@ -989,32 +1002,32 @@
       <c r="K19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>20</v>
+      <c r="L19" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <f aca="false">seed_list!$B$7</f>
+        <v>339</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <f aca="false">seed_list!$A$7</f>
-        <v>861</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>6</v>
@@ -1028,32 +1041,32 @@
       <c r="K20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>20</v>
+      <c r="L20" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <f aca="false">seed_list!$B$8</f>
+        <v>240</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <f aca="false">seed_list!$A$8</f>
-        <v>873</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>6</v>
@@ -1067,32 +1080,32 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>20</v>
+      <c r="L21" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <f aca="false">seed_list!$B$9</f>
+        <v>804</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <f aca="false">seed_list!$A$9</f>
-        <v>523</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>6</v>
@@ -1106,32 +1119,32 @@
       <c r="K22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>20</v>
+      <c r="L22" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <f aca="false">seed_list!$B$10</f>
+        <v>531</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <f aca="false">seed_list!$A$10</f>
-        <v>102</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>6</v>
@@ -1145,31 +1158,32 @@
       <c r="K23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>20</v>
+      <c r="L23" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1</v>
+        <f aca="false">seed_list!$B$11</f>
+        <v>348</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>6</v>
@@ -1183,32 +1197,32 @@
       <c r="K24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>20</v>
+      <c r="L24" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C25" s="5" t="n">
-        <f aca="false">seed_list!$A$1</f>
-        <v>724</v>
+        <f aca="false">seed_list!$B$2</f>
+        <v>620</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>6</v>
@@ -1222,32 +1236,32 @@
       <c r="K25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>20</v>
+      <c r="L25" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C26" s="5" t="n">
-        <f aca="false">seed_list!$A$2</f>
-        <v>712</v>
+        <f aca="false">seed_list!$B$3</f>
+        <v>149</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>6</v>
@@ -1261,32 +1275,32 @@
       <c r="K26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>20</v>
+      <c r="L26" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C27" s="5" t="n">
-        <f aca="false">seed_list!$A$3</f>
-        <v>327</v>
+        <f aca="false">seed_list!$B$4</f>
+        <v>48</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>6</v>
@@ -1300,32 +1314,32 @@
       <c r="K27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>20</v>
+      <c r="L27" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="5" t="n">
-        <f aca="false">seed_list!$A$4</f>
-        <v>562</v>
+        <f aca="false">seed_list!$B$5</f>
+        <v>270</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>6</v>
@@ -1339,32 +1353,32 @@
       <c r="K28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>20</v>
+      <c r="L28" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C29" s="5" t="n">
-        <f aca="false">seed_list!$A$5</f>
-        <v>388</v>
+        <f aca="false">seed_list!$B$6</f>
+        <v>714</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H29" s="5" t="n">
         <v>6</v>
@@ -1378,32 +1392,32 @@
       <c r="K29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>20</v>
+      <c r="L29" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B30" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="5" t="n">
-        <f aca="false">seed_list!$A$6</f>
-        <v>518</v>
+        <f aca="false">seed_list!$B$7</f>
+        <v>339</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H30" s="5" t="n">
         <v>6</v>
@@ -1417,32 +1431,32 @@
       <c r="K30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>20</v>
+      <c r="L30" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C31" s="5" t="n">
-        <f aca="false">seed_list!$A$7</f>
-        <v>861</v>
+        <f aca="false">seed_list!$B$8</f>
+        <v>240</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H31" s="5" t="n">
         <v>6</v>
@@ -1456,32 +1470,32 @@
       <c r="K31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>20</v>
+      <c r="L31" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C32" s="5" t="n">
-        <f aca="false">seed_list!$A$8</f>
-        <v>873</v>
+        <f aca="false">seed_list!$B$9</f>
+        <v>804</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H32" s="5" t="n">
         <v>6</v>
@@ -1495,32 +1509,32 @@
       <c r="K32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>20</v>
+      <c r="L32" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C33" s="5" t="n">
-        <f aca="false">seed_list!$A$9</f>
-        <v>523</v>
+        <f aca="false">seed_list!$B$10</f>
+        <v>531</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F33" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H33" s="5" t="n">
         <v>6</v>
@@ -1534,32 +1548,32 @@
       <c r="K33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>20</v>
+      <c r="L33" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C34" s="5" t="n">
-        <f aca="false">seed_list!$A$10</f>
-        <v>102</v>
+        <f aca="false">seed_list!$B$11</f>
+        <v>348</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H34" s="5" t="n">
         <v>6</v>
@@ -1573,20 +1587,20 @@
       <c r="K34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>20</v>
+      <c r="L34" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C35" s="5" t="n">
-        <f aca="false">seed_list!$A$1</f>
-        <v>724</v>
+        <f aca="false">seed_list!$B$2</f>
+        <v>620</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>180</v>
@@ -1598,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H35" s="5" t="n">
         <v>6</v>
@@ -1612,20 +1626,20 @@
       <c r="K35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>20</v>
+      <c r="L35" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C36" s="5" t="n">
-        <f aca="false">seed_list!$A$2</f>
-        <v>712</v>
+        <f aca="false">seed_list!$B$3</f>
+        <v>149</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>180</v>
@@ -1637,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H36" s="5" t="n">
         <v>6</v>
@@ -1651,20 +1665,20 @@
       <c r="K36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>20</v>
+      <c r="L36" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C37" s="5" t="n">
-        <f aca="false">seed_list!$A$3</f>
-        <v>327</v>
+        <f aca="false">seed_list!$B$4</f>
+        <v>48</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>180</v>
@@ -1676,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H37" s="5" t="n">
         <v>6</v>
@@ -1690,20 +1704,20 @@
       <c r="K37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>20</v>
+      <c r="L37" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C38" s="5" t="n">
-        <f aca="false">seed_list!$A$4</f>
-        <v>562</v>
+        <f aca="false">seed_list!$B$5</f>
+        <v>270</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>180</v>
@@ -1715,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H38" s="5" t="n">
         <v>6</v>
@@ -1729,20 +1743,20 @@
       <c r="K38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="6" t="s">
-        <v>20</v>
+      <c r="L38" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C39" s="5" t="n">
-        <f aca="false">seed_list!$A$5</f>
-        <v>388</v>
+        <f aca="false">seed_list!$B$6</f>
+        <v>714</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>180</v>
@@ -1754,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>6</v>
@@ -1768,20 +1782,20 @@
       <c r="K39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="6" t="s">
-        <v>20</v>
+      <c r="L39" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C40" s="5" t="n">
-        <f aca="false">seed_list!$A$6</f>
-        <v>518</v>
+        <f aca="false">seed_list!$B$7</f>
+        <v>339</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>180</v>
@@ -1793,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H40" s="5" t="n">
         <v>6</v>
@@ -1807,20 +1821,20 @@
       <c r="K40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="6" t="s">
-        <v>20</v>
+      <c r="L40" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C41" s="5" t="n">
-        <f aca="false">seed_list!$A$7</f>
-        <v>861</v>
+        <f aca="false">seed_list!$B$8</f>
+        <v>240</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>180</v>
@@ -1832,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H41" s="5" t="n">
         <v>6</v>
@@ -1846,20 +1860,20 @@
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>20</v>
+      <c r="L41" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C42" s="5" t="n">
-        <f aca="false">seed_list!$A$8</f>
-        <v>873</v>
+        <f aca="false">seed_list!$B$9</f>
+        <v>804</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>180</v>
@@ -1871,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>6</v>
@@ -1885,20 +1899,20 @@
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="6" t="s">
-        <v>20</v>
+      <c r="L42" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B43" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C43" s="5" t="n">
-        <f aca="false">seed_list!$A$9</f>
-        <v>523</v>
+        <f aca="false">seed_list!$B$10</f>
+        <v>531</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>180</v>
@@ -1910,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H43" s="5" t="n">
         <v>6</v>
@@ -1924,20 +1938,20 @@
       <c r="K43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>20</v>
+      <c r="L43" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C44" s="5" t="n">
-        <f aca="false">seed_list!$A$10</f>
-        <v>102</v>
+        <f aca="false">seed_list!$B$11</f>
+        <v>348</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>180</v>
@@ -1949,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H44" s="5" t="n">
         <v>6</v>
@@ -1963,31 +1977,32 @@
       <c r="K44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="6" t="s">
-        <v>20</v>
+      <c r="L44" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>1</v>
+        <f aca="false">seed_list!$B$2</f>
+        <v>620</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F45" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H45" s="5" t="n">
         <v>6</v>
@@ -2001,32 +2016,32 @@
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>20</v>
+      <c r="L45" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" s="5" t="n">
-        <f aca="false">seed_list!$A$1</f>
-        <v>724</v>
+        <f aca="false">seed_list!$B$3</f>
+        <v>149</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H46" s="5" t="n">
         <v>6</v>
@@ -2040,32 +2055,32 @@
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>20</v>
+      <c r="L46" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="5" t="n">
-        <f aca="false">seed_list!$A$2</f>
-        <v>712</v>
+        <f aca="false">seed_list!$B$4</f>
+        <v>48</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F47" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>6</v>
@@ -2079,32 +2094,32 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="6" t="s">
-        <v>20</v>
+      <c r="L47" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="5" t="n">
-        <f aca="false">seed_list!$A$3</f>
-        <v>327</v>
+        <f aca="false">seed_list!$B$5</f>
+        <v>270</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H48" s="5" t="n">
         <v>6</v>
@@ -2118,32 +2133,32 @@
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>20</v>
+      <c r="L48" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="5" t="n">
-        <f aca="false">seed_list!$A$4</f>
-        <v>562</v>
+        <f aca="false">seed_list!$B$6</f>
+        <v>714</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H49" s="5" t="n">
         <v>6</v>
@@ -2157,32 +2172,32 @@
       <c r="K49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>20</v>
+      <c r="L49" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="5" t="n">
-        <f aca="false">seed_list!$A$5</f>
-        <v>388</v>
+        <f aca="false">seed_list!$B$7</f>
+        <v>339</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F50" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H50" s="5" t="n">
         <v>6</v>
@@ -2196,32 +2211,32 @@
       <c r="K50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>20</v>
+      <c r="L50" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B51" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="5" t="n">
-        <f aca="false">seed_list!$A$6</f>
-        <v>518</v>
+        <f aca="false">seed_list!$B$8</f>
+        <v>240</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H51" s="5" t="n">
         <v>6</v>
@@ -2235,32 +2250,32 @@
       <c r="K51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>20</v>
+      <c r="L51" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="5" t="n">
-        <f aca="false">seed_list!$A$7</f>
-        <v>861</v>
+        <f aca="false">seed_list!$B$9</f>
+        <v>804</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H52" s="5" t="n">
         <v>6</v>
@@ -2274,32 +2289,32 @@
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>20</v>
+      <c r="L52" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B53" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="5" t="n">
-        <f aca="false">seed_list!$A$8</f>
-        <v>873</v>
+        <f aca="false">seed_list!$B$10</f>
+        <v>531</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F53" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H53" s="5" t="n">
         <v>6</v>
@@ -2313,32 +2328,32 @@
       <c r="K53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>20</v>
+      <c r="L53" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B54" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" s="5" t="n">
-        <f aca="false">seed_list!$A$9</f>
-        <v>523</v>
+        <f aca="false">seed_list!$B$11</f>
+        <v>348</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H54" s="5" t="n">
         <v>6</v>
@@ -2352,32 +2367,32 @@
       <c r="K54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>20</v>
+      <c r="L54" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="5" t="n">
-        <f aca="false">seed_list!$A$10</f>
-        <v>102</v>
+        <f aca="false">seed_list!$B$2</f>
+        <v>620</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F55" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H55" s="5" t="n">
         <v>6</v>
@@ -2391,32 +2406,32 @@
       <c r="K55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L55" s="6" t="s">
-        <v>20</v>
+      <c r="L55" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B56" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C56" s="5" t="n">
-        <f aca="false">seed_list!$A$1</f>
-        <v>724</v>
+        <f aca="false">seed_list!$B$3</f>
+        <v>149</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F56" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H56" s="5" t="n">
         <v>6</v>
@@ -2430,32 +2445,32 @@
       <c r="K56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L56" s="6" t="s">
-        <v>20</v>
+      <c r="L56" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B57" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C57" s="5" t="n">
-        <f aca="false">seed_list!$A$2</f>
-        <v>712</v>
+        <f aca="false">seed_list!$B$4</f>
+        <v>48</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H57" s="5" t="n">
         <v>6</v>
@@ -2469,32 +2484,32 @@
       <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>20</v>
+      <c r="L57" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B58" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C58" s="5" t="n">
-        <f aca="false">seed_list!$A$3</f>
-        <v>327</v>
+        <f aca="false">seed_list!$B$5</f>
+        <v>270</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F58" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H58" s="5" t="n">
         <v>6</v>
@@ -2508,32 +2523,32 @@
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="6" t="s">
-        <v>20</v>
+      <c r="L58" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B59" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C59" s="5" t="n">
-        <f aca="false">seed_list!$A$4</f>
-        <v>562</v>
+        <f aca="false">seed_list!$B$6</f>
+        <v>714</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F59" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H59" s="5" t="n">
         <v>6</v>
@@ -2547,32 +2562,32 @@
       <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L59" s="6" t="s">
-        <v>20</v>
+      <c r="L59" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B60" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C60" s="5" t="n">
-        <f aca="false">seed_list!$A$5</f>
-        <v>388</v>
+        <f aca="false">seed_list!$B$7</f>
+        <v>339</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F60" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H60" s="5" t="n">
         <v>6</v>
@@ -2586,32 +2601,32 @@
       <c r="K60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L60" s="6" t="s">
-        <v>20</v>
+      <c r="L60" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B61" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C61" s="5" t="n">
-        <f aca="false">seed_list!$A$6</f>
-        <v>518</v>
+        <f aca="false">seed_list!$B$8</f>
+        <v>240</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F61" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H61" s="5" t="n">
         <v>6</v>
@@ -2625,32 +2640,32 @@
       <c r="K61" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L61" s="6" t="s">
-        <v>20</v>
+      <c r="L61" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B62" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C62" s="5" t="n">
-        <f aca="false">seed_list!$A$7</f>
-        <v>861</v>
+        <f aca="false">seed_list!$B$9</f>
+        <v>804</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F62" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H62" s="5" t="n">
         <v>6</v>
@@ -2664,32 +2679,32 @@
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L62" s="6" t="s">
-        <v>20</v>
+      <c r="L62" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B63" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C63" s="5" t="n">
-        <f aca="false">seed_list!$A$8</f>
-        <v>873</v>
+        <f aca="false">seed_list!$B$10</f>
+        <v>531</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F63" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H63" s="5" t="n">
         <v>6</v>
@@ -2703,32 +2718,32 @@
       <c r="K63" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L63" s="6" t="s">
-        <v>20</v>
+      <c r="L63" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C64" s="5" t="n">
-        <f aca="false">seed_list!$A$9</f>
-        <v>523</v>
+        <f aca="false">seed_list!$B$11</f>
+        <v>348</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>180</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F64" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H64" s="5" t="n">
         <v>6</v>
@@ -2742,48 +2757,2233 @@
       <c r="K64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L64" s="6" t="s">
-        <v>20</v>
+      <c r="L64" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="5" t="n">
+      <c r="H65" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <f aca="false">seed_list!$B$2</f>
+        <v>620</v>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I66" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <f aca="false">seed_list!$B$3</f>
+        <v>149</v>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I67" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <f aca="false">seed_list!$B$4</f>
+        <v>48</v>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I68" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <f aca="false">seed_list!$B$5</f>
+        <v>270</v>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I69" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <f aca="false">seed_list!$B$6</f>
+        <v>714</v>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I70" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <f aca="false">seed_list!$B$7</f>
+        <v>339</v>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <f aca="false">seed_list!$B$8</f>
+        <v>240</v>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I72" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <f aca="false">seed_list!$B$9</f>
+        <v>804</v>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <f aca="false">seed_list!$B$10</f>
+        <v>531</v>
+      </c>
+      <c r="D74" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" s="5" t="n">
+        <f aca="false">seed_list!$B$11</f>
+        <v>348</v>
+      </c>
+      <c r="D75" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I75" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C65" s="5" t="n">
-        <f aca="false">seed_list!$A$10</f>
-        <v>102</v>
-      </c>
-      <c r="D65" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I65" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="6" t="s">
+      <c r="C76" s="5" t="n">
+        <f aca="false">seed_list!$B$2</f>
+        <v>620</v>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I76" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B77" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" s="5" t="n">
+        <f aca="false">seed_list!$B$3</f>
+        <v>149</v>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <f aca="false">seed_list!$B$4</f>
+        <v>48</v>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I78" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <f aca="false">seed_list!$B$5</f>
+        <v>270</v>
+      </c>
+      <c r="D79" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I79" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" s="5" t="n">
+        <f aca="false">seed_list!$B$6</f>
+        <v>714</v>
+      </c>
+      <c r="D80" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I80" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" s="5" t="n">
+        <f aca="false">seed_list!$B$7</f>
+        <v>339</v>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I81" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <f aca="false">seed_list!$B$8</f>
+        <v>240</v>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I82" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" s="5" t="n">
+        <f aca="false">seed_list!$B$9</f>
+        <v>804</v>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I83" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <f aca="false">seed_list!$B$10</f>
+        <v>531</v>
+      </c>
+      <c r="D84" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I84" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <f aca="false">seed_list!$B$11</f>
+        <v>348</v>
+      </c>
+      <c r="D85" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I85" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I86" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <f aca="false">seed_list!$B$2</f>
+        <v>620</v>
+      </c>
+      <c r="D87" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I87" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <f aca="false">seed_list!$B$3</f>
+        <v>149</v>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I88" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <f aca="false">seed_list!$B$4</f>
+        <v>48</v>
+      </c>
+      <c r="D89" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I89" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <f aca="false">seed_list!$B$5</f>
+        <v>270</v>
+      </c>
+      <c r="D90" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I90" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" s="5" t="n">
+        <f aca="false">seed_list!$B$6</f>
+        <v>714</v>
+      </c>
+      <c r="D91" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I91" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" s="5" t="n">
+        <f aca="false">seed_list!$B$7</f>
+        <v>339</v>
+      </c>
+      <c r="D92" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I92" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" s="5" t="n">
+        <f aca="false">seed_list!$B$8</f>
+        <v>240</v>
+      </c>
+      <c r="D93" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I93" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" s="5" t="n">
+        <f aca="false">seed_list!$B$9</f>
+        <v>804</v>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I94" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" s="5" t="n">
+        <f aca="false">seed_list!$B$10</f>
+        <v>531</v>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I95" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <f aca="false">seed_list!$B$11</f>
+        <v>348</v>
+      </c>
+      <c r="D96" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I96" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <f aca="false">seed_list!$B$2</f>
+        <v>620</v>
+      </c>
+      <c r="D97" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I97" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <f aca="false">seed_list!$B$3</f>
+        <v>149</v>
+      </c>
+      <c r="D98" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I98" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" s="5" t="n">
+        <f aca="false">seed_list!$B$4</f>
+        <v>48</v>
+      </c>
+      <c r="D99" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I99" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <f aca="false">seed_list!$B$5</f>
+        <v>270</v>
+      </c>
+      <c r="D100" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I100" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <f aca="false">seed_list!$B$6</f>
+        <v>714</v>
+      </c>
+      <c r="D101" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I101" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" s="5" t="n">
+        <f aca="false">seed_list!$B$7</f>
+        <v>339</v>
+      </c>
+      <c r="D102" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I102" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" s="5" t="n">
+        <f aca="false">seed_list!$B$8</f>
+        <v>240</v>
+      </c>
+      <c r="D103" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I103" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <f aca="false">seed_list!$B$9</f>
+        <v>804</v>
+      </c>
+      <c r="D104" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I104" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" s="5" t="n">
+        <f aca="false">seed_list!$B$10</f>
+        <v>531</v>
+      </c>
+      <c r="D105" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I105" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <f aca="false">seed_list!$B$11</f>
+        <v>348</v>
+      </c>
+      <c r="D106" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I106" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2801,115 +5001,185 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <f aca="false">C2</f>
+        <v>620</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>620</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
+        <v>857</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="n">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <f aca="false">C3</f>
+        <v>149</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="D3" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>724</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <f aca="false">C4</f>
+        <v>48</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>712</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <f aca="false">C5</f>
+        <v>270</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>270</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <f aca="false">C6</f>
+        <v>714</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>714</v>
+      </c>
+      <c r="D6" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>562</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <f aca="false">C7</f>
+        <v>339</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>339</v>
+      </c>
+      <c r="D7" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <f aca="false">C8</f>
+        <v>240</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>518</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <f aca="false">C9</f>
+        <v>804</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>804</v>
+      </c>
+      <c r="D9" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>861</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <f aca="false">C10</f>
+        <v>531</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>531</v>
+      </c>
+      <c r="D10" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>873</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <f aca="false">C11</f>
+        <v>348</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>348</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>523</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
+        <v>321</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/evaluation/loop_exec_option.xlsx
+++ b/evaluation/loop_exec_option.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="27">
   <si>
     <t xml:space="preserve">branch_name</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/isshy-you/tetris.git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ish05g6</t>
   </si>
   <si>
     <t xml:space="preserve">refer</t>
@@ -249,11 +246,11 @@
   </sheetPr>
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
@@ -3580,822 +3577,298 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B86" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F86" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I86" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L86" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C87" s="5" t="n">
-        <f aca="false">seed_list!$B$2</f>
-        <v>620</v>
-      </c>
-      <c r="D87" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I87" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A87" s="3"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C88" s="5" t="n">
-        <f aca="false">seed_list!$B$3</f>
-        <v>149</v>
-      </c>
-      <c r="D88" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I88" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B89" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C89" s="5" t="n">
-        <f aca="false">seed_list!$B$4</f>
-        <v>48</v>
-      </c>
-      <c r="D89" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F89" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I89" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C90" s="5" t="n">
-        <f aca="false">seed_list!$B$5</f>
-        <v>270</v>
-      </c>
-      <c r="D90" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F90" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I90" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B91" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C91" s="5" t="n">
-        <f aca="false">seed_list!$B$6</f>
-        <v>714</v>
-      </c>
-      <c r="D91" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F91" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I91" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C92" s="5" t="n">
-        <f aca="false">seed_list!$B$7</f>
-        <v>339</v>
-      </c>
-      <c r="D92" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F92" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I92" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L92" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A92" s="3"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C93" s="5" t="n">
-        <f aca="false">seed_list!$B$8</f>
-        <v>240</v>
-      </c>
-      <c r="D93" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F93" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I93" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L93" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C94" s="5" t="n">
-        <f aca="false">seed_list!$B$9</f>
-        <v>804</v>
-      </c>
-      <c r="D94" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F94" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I94" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C95" s="5" t="n">
-        <f aca="false">seed_list!$B$10</f>
-        <v>531</v>
-      </c>
-      <c r="D95" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F95" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I95" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L95" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A95" s="3"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B96" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C96" s="5" t="n">
-        <f aca="false">seed_list!$B$11</f>
-        <v>348</v>
-      </c>
-      <c r="D96" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I96" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A96" s="3"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C97" s="5" t="n">
-        <f aca="false">seed_list!$B$2</f>
-        <v>620</v>
-      </c>
-      <c r="D97" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F97" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I97" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A97" s="3"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B98" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C98" s="5" t="n">
-        <f aca="false">seed_list!$B$3</f>
-        <v>149</v>
-      </c>
-      <c r="D98" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F98" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I98" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A98" s="3"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B99" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C99" s="5" t="n">
-        <f aca="false">seed_list!$B$4</f>
-        <v>48</v>
-      </c>
-      <c r="D99" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I99" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B100" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C100" s="5" t="n">
-        <f aca="false">seed_list!$B$5</f>
-        <v>270</v>
-      </c>
-      <c r="D100" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F100" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I100" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A100" s="3"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C101" s="5" t="n">
-        <f aca="false">seed_list!$B$6</f>
-        <v>714</v>
-      </c>
-      <c r="D101" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F101" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I101" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B102" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C102" s="5" t="n">
-        <f aca="false">seed_list!$B$7</f>
-        <v>339</v>
-      </c>
-      <c r="D102" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F102" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I102" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A102" s="3"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B103" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C103" s="5" t="n">
-        <f aca="false">seed_list!$B$8</f>
-        <v>240</v>
-      </c>
-      <c r="D103" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F103" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I103" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C104" s="5" t="n">
-        <f aca="false">seed_list!$B$9</f>
-        <v>804</v>
-      </c>
-      <c r="D104" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F104" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H104" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I104" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A104" s="3"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B105" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C105" s="5" t="n">
-        <f aca="false">seed_list!$B$10</f>
-        <v>531</v>
-      </c>
-      <c r="D105" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F105" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I105" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L105" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A105" s="3"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B106" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C106" s="5" t="n">
-        <f aca="false">seed_list!$B$11</f>
-        <v>348</v>
-      </c>
-      <c r="D106" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F106" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H106" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I106" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A106" s="3"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
@@ -5007,18 +4480,18 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5034,7 +4507,7 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>857</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,7 +4523,7 @@
       </c>
       <c r="D3" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>401</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5066,7 +4539,7 @@
       </c>
       <c r="D4" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>43</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5082,7 +4555,7 @@
       </c>
       <c r="D5" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>386</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5098,7 +4571,7 @@
       </c>
       <c r="D6" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>967</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,7 +4587,7 @@
       </c>
       <c r="D7" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,7 +4603,7 @@
       </c>
       <c r="D8" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,7 +4619,7 @@
       </c>
       <c r="D9" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>634</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,7 +4635,7 @@
       </c>
       <c r="D10" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>936</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,7 +4651,7 @@
       </c>
       <c r="D11" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>321</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/loop_exec_option.xlsx
+++ b/evaluation/loop_exec_option.xlsx
@@ -9,10 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="list_2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ish04d" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="seed_list" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">ish04d!$A$1:$L$108</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">list!$A$1:$L$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="28">
   <si>
     <t xml:space="preserve">branch_name</t>
   </si>
@@ -100,12 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/isshy-you/tetris.git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">train_sample2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isshy</t>
   </si>
   <si>
     <t xml:space="preserve">refer</t>
@@ -272,6 +267,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -280,10 +279,10 @@
   <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
@@ -3088,10 +3087,10 @@
   <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
@@ -3147,7 +3146,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1</v>
@@ -3156,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
@@ -3171,7 +3170,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
@@ -3185,7 +3184,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>2</v>
@@ -3194,7 +3193,7 @@
         <v>-1</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -3209,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>15</v>
@@ -3223,7 +3222,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>3</v>
@@ -3232,7 +3231,7 @@
         <v>-1</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -3247,7 +3246,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>15</v>
@@ -3261,7 +3260,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>2</v>
@@ -3271,7 +3270,7 @@
         <v>620</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -3286,7 +3285,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>15</v>
@@ -3300,7 +3299,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>2</v>
@@ -3310,7 +3309,7 @@
         <v>149</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
@@ -3325,7 +3324,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>15</v>
@@ -3339,7 +3338,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>2</v>
@@ -3349,7 +3348,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -3364,7 +3363,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>15</v>
@@ -3378,7 +3377,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>2</v>
@@ -3388,7 +3387,7 @@
         <v>270</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
@@ -3403,7 +3402,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>15</v>
@@ -3417,7 +3416,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>2</v>
@@ -3427,7 +3426,7 @@
         <v>714</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
@@ -3442,7 +3441,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>15</v>
@@ -3456,7 +3455,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>2</v>
@@ -3466,7 +3465,7 @@
         <v>339</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
@@ -3481,7 +3480,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>15</v>
@@ -3495,7 +3494,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>2</v>
@@ -3505,7 +3504,7 @@
         <v>240</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
@@ -3520,7 +3519,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>15</v>
@@ -3534,7 +3533,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>2</v>
@@ -3544,7 +3543,7 @@
         <v>804</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>13</v>
@@ -3559,7 +3558,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>15</v>
@@ -3573,7 +3572,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>2</v>
@@ -3583,7 +3582,7 @@
         <v>531</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
@@ -3598,7 +3597,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>15</v>
@@ -3612,7 +3611,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>2</v>
@@ -3622,7 +3621,7 @@
         <v>348</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>180</v>
+        <v>999</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
@@ -3637,7 +3636,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>15</v>
@@ -3651,7 +3650,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>3</v>
@@ -3661,7 +3660,7 @@
         <v>620</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
@@ -3676,7 +3675,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>15</v>
@@ -3690,7 +3689,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>3</v>
@@ -3700,7 +3699,7 @@
         <v>149</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -3715,7 +3714,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>15</v>
@@ -3729,7 +3728,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>3</v>
@@ -3739,7 +3738,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
@@ -3754,7 +3753,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>15</v>
@@ -3768,7 +3767,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>3</v>
@@ -3778,7 +3777,7 @@
         <v>270</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
@@ -3793,7 +3792,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>15</v>
@@ -3807,7 +3806,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>3</v>
@@ -3817,7 +3816,7 @@
         <v>714</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
@@ -3832,7 +3831,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>15</v>
@@ -3846,7 +3845,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>3</v>
@@ -3856,7 +3855,7 @@
         <v>339</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>13</v>
@@ -3871,7 +3870,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>15</v>
@@ -3885,7 +3884,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>3</v>
@@ -3895,7 +3894,7 @@
         <v>240</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
@@ -3910,7 +3909,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>15</v>
@@ -3924,7 +3923,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>3</v>
@@ -3934,7 +3933,7 @@
         <v>804</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>13</v>
@@ -3949,7 +3948,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>15</v>
@@ -3963,7 +3962,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>3</v>
@@ -3973,7 +3972,7 @@
         <v>531</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>13</v>
@@ -3988,7 +3987,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>15</v>
@@ -4002,7 +4001,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>3</v>
@@ -4012,7 +4011,7 @@
         <v>348</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>13</v>
@@ -4027,7 +4026,7 @@
         <v>6</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>15</v>
@@ -4040,3276 +4039,1180 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I27" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <f aca="false">seed_list!$B$2</f>
-        <v>620</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I28" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <f aca="false">seed_list!$B$3</f>
-        <v>149</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I29" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <f aca="false">seed_list!$B$4</f>
-        <v>48</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I30" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" s="5" t="n">
-        <f aca="false">seed_list!$B$5</f>
-        <v>270</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I31" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" s="5" t="n">
-        <f aca="false">seed_list!$B$6</f>
-        <v>714</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I32" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5" t="n">
-        <f aca="false">seed_list!$B$7</f>
-        <v>339</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I33" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <f aca="false">seed_list!$B$8</f>
-        <v>240</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I34" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" s="5" t="n">
-        <f aca="false">seed_list!$B$9</f>
-        <v>804</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I35" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <f aca="false">seed_list!$B$10</f>
-        <v>531</v>
-      </c>
-      <c r="D36" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I36" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <f aca="false">seed_list!$B$11</f>
-        <v>348</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I37" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <f aca="false">seed_list!$B$2</f>
-        <v>620</v>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I38" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <f aca="false">seed_list!$B$3</f>
-        <v>149</v>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I39" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" s="5" t="n">
-        <f aca="false">seed_list!$B$4</f>
-        <v>48</v>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I40" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" s="5" t="n">
-        <f aca="false">seed_list!$B$5</f>
-        <v>270</v>
-      </c>
-      <c r="D41" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I41" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" s="5" t="n">
-        <f aca="false">seed_list!$B$6</f>
-        <v>714</v>
-      </c>
-      <c r="D42" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I42" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" s="5" t="n">
-        <f aca="false">seed_list!$B$7</f>
-        <v>339</v>
-      </c>
-      <c r="D43" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I43" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C44" s="5" t="n">
-        <f aca="false">seed_list!$B$8</f>
-        <v>240</v>
-      </c>
-      <c r="D44" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I44" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" s="5" t="n">
-        <f aca="false">seed_list!$B$9</f>
-        <v>804</v>
-      </c>
-      <c r="D45" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I45" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" s="5" t="n">
-        <f aca="false">seed_list!$B$10</f>
-        <v>531</v>
-      </c>
-      <c r="D46" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I46" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C47" s="5" t="n">
-        <f aca="false">seed_list!$B$11</f>
-        <v>348</v>
-      </c>
-      <c r="D47" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I47" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" s="5" t="n">
-        <f aca="false">seed_list!$B$2</f>
-        <v>620</v>
-      </c>
-      <c r="D48" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I48" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" s="5" t="n">
-        <f aca="false">seed_list!$B$3</f>
-        <v>149</v>
-      </c>
-      <c r="D49" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I49" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A49" s="3"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C50" s="5" t="n">
-        <f aca="false">seed_list!$B$4</f>
-        <v>48</v>
-      </c>
-      <c r="D50" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I50" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" s="5" t="n">
-        <f aca="false">seed_list!$B$5</f>
-        <v>270</v>
-      </c>
-      <c r="D51" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I51" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C52" s="5" t="n">
-        <f aca="false">seed_list!$B$6</f>
-        <v>714</v>
-      </c>
-      <c r="D52" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I52" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" s="5" t="n">
-        <f aca="false">seed_list!$B$7</f>
-        <v>339</v>
-      </c>
-      <c r="D53" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I53" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C54" s="5" t="n">
-        <f aca="false">seed_list!$B$8</f>
-        <v>240</v>
-      </c>
-      <c r="D54" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I54" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C55" s="5" t="n">
-        <f aca="false">seed_list!$B$9</f>
-        <v>804</v>
-      </c>
-      <c r="D55" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I55" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" s="5" t="n">
-        <f aca="false">seed_list!$B$10</f>
-        <v>531</v>
-      </c>
-      <c r="D56" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I56" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" s="5" t="n">
-        <f aca="false">seed_list!$B$11</f>
-        <v>348</v>
-      </c>
-      <c r="D57" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I57" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C58" s="5" t="n">
-        <f aca="false">seed_list!$B$2</f>
-        <v>620</v>
-      </c>
-      <c r="D58" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I58" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C59" s="5" t="n">
-        <f aca="false">seed_list!$B$3</f>
-        <v>149</v>
-      </c>
-      <c r="D59" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I59" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C60" s="5" t="n">
-        <f aca="false">seed_list!$B$4</f>
-        <v>48</v>
-      </c>
-      <c r="D60" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I60" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C61" s="5" t="n">
-        <f aca="false">seed_list!$B$5</f>
-        <v>270</v>
-      </c>
-      <c r="D61" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I61" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C62" s="5" t="n">
-        <f aca="false">seed_list!$B$6</f>
-        <v>714</v>
-      </c>
-      <c r="D62" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I62" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C63" s="5" t="n">
-        <f aca="false">seed_list!$B$7</f>
-        <v>339</v>
-      </c>
-      <c r="D63" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I63" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C64" s="5" t="n">
-        <f aca="false">seed_list!$B$8</f>
-        <v>240</v>
-      </c>
-      <c r="D64" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I64" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C65" s="5" t="n">
-        <f aca="false">seed_list!$B$9</f>
-        <v>804</v>
-      </c>
-      <c r="D65" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I65" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C66" s="5" t="n">
-        <f aca="false">seed_list!$B$10</f>
-        <v>531</v>
-      </c>
-      <c r="D66" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I66" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C67" s="5" t="n">
-        <f aca="false">seed_list!$B$11</f>
-        <v>348</v>
-      </c>
-      <c r="D67" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I67" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C68" s="5" t="n">
-        <f aca="false">seed_list!$B$2</f>
-        <v>620</v>
-      </c>
-      <c r="D68" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I68" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A68" s="3"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C69" s="5" t="n">
-        <f aca="false">seed_list!$B$3</f>
-        <v>149</v>
-      </c>
-      <c r="D69" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I69" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C70" s="5" t="n">
-        <f aca="false">seed_list!$B$4</f>
-        <v>48</v>
-      </c>
-      <c r="D70" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I70" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C71" s="5" t="n">
-        <f aca="false">seed_list!$B$5</f>
-        <v>270</v>
-      </c>
-      <c r="D71" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I71" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A71" s="3"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C72" s="5" t="n">
-        <f aca="false">seed_list!$B$6</f>
-        <v>714</v>
-      </c>
-      <c r="D72" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F72" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I72" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A72" s="3"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C73" s="5" t="n">
-        <f aca="false">seed_list!$B$7</f>
-        <v>339</v>
-      </c>
-      <c r="D73" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I73" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A73" s="3"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C74" s="5" t="n">
-        <f aca="false">seed_list!$B$8</f>
-        <v>240</v>
-      </c>
-      <c r="D74" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I74" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A74" s="3"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C75" s="5" t="n">
-        <f aca="false">seed_list!$B$9</f>
-        <v>804</v>
-      </c>
-      <c r="D75" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I75" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A75" s="3"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="4"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C76" s="5" t="n">
-        <f aca="false">seed_list!$B$10</f>
-        <v>531</v>
-      </c>
-      <c r="D76" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I76" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A76" s="3"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C77" s="5" t="n">
-        <f aca="false">seed_list!$B$11</f>
-        <v>348</v>
-      </c>
-      <c r="D77" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I77" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C78" s="5" t="n">
-        <f aca="false">seed_list!$B$2</f>
-        <v>620</v>
-      </c>
-      <c r="D78" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I78" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A78" s="3"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C79" s="5" t="n">
-        <f aca="false">seed_list!$B$3</f>
-        <v>149</v>
-      </c>
-      <c r="D79" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I79" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C80" s="5" t="n">
-        <f aca="false">seed_list!$B$4</f>
-        <v>48</v>
-      </c>
-      <c r="D80" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I80" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C81" s="5" t="n">
-        <f aca="false">seed_list!$B$5</f>
-        <v>270</v>
-      </c>
-      <c r="D81" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F81" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I81" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C82" s="5" t="n">
-        <f aca="false">seed_list!$B$6</f>
-        <v>714</v>
-      </c>
-      <c r="D82" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F82" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I82" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A82" s="3"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C83" s="5" t="n">
-        <f aca="false">seed_list!$B$7</f>
-        <v>339</v>
-      </c>
-      <c r="D83" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I83" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C84" s="5" t="n">
-        <f aca="false">seed_list!$B$8</f>
-        <v>240</v>
-      </c>
-      <c r="D84" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I84" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C85" s="5" t="n">
-        <f aca="false">seed_list!$B$9</f>
-        <v>804</v>
-      </c>
-      <c r="D85" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I85" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L85" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A85" s="3"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C86" s="5" t="n">
-        <f aca="false">seed_list!$B$10</f>
-        <v>531</v>
-      </c>
-      <c r="D86" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I86" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L86" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C87" s="5" t="n">
-        <f aca="false">seed_list!$B$11</f>
-        <v>348</v>
-      </c>
-      <c r="D87" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I87" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L87" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A87" s="3"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="4"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I88" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C89" s="5" t="n">
-        <f aca="false">seed_list!$B$2</f>
-        <v>620</v>
-      </c>
-      <c r="D89" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I89" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C90" s="5" t="n">
-        <f aca="false">seed_list!$B$3</f>
-        <v>149</v>
-      </c>
-      <c r="D90" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H90" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I90" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C91" s="5" t="n">
-        <f aca="false">seed_list!$B$4</f>
-        <v>48</v>
-      </c>
-      <c r="D91" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H91" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I91" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C92" s="5" t="n">
-        <f aca="false">seed_list!$B$5</f>
-        <v>270</v>
-      </c>
-      <c r="D92" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I92" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L92" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A92" s="3"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C93" s="5" t="n">
-        <f aca="false">seed_list!$B$6</f>
-        <v>714</v>
-      </c>
-      <c r="D93" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I93" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L93" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C94" s="5" t="n">
-        <f aca="false">seed_list!$B$7</f>
-        <v>339</v>
-      </c>
-      <c r="D94" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I94" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C95" s="5" t="n">
-        <f aca="false">seed_list!$B$8</f>
-        <v>240</v>
-      </c>
-      <c r="D95" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H95" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I95" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L95" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A95" s="3"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C96" s="5" t="n">
-        <f aca="false">seed_list!$B$9</f>
-        <v>804</v>
-      </c>
-      <c r="D96" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H96" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I96" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A96" s="3"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C97" s="5" t="n">
-        <f aca="false">seed_list!$B$10</f>
-        <v>531</v>
-      </c>
-      <c r="D97" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I97" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A97" s="3"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C98" s="5" t="n">
-        <f aca="false">seed_list!$B$11</f>
-        <v>348</v>
-      </c>
-      <c r="D98" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H98" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I98" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A98" s="3"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C99" s="5" t="n">
-        <f aca="false">seed_list!$B$2</f>
-        <v>620</v>
-      </c>
-      <c r="D99" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I99" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C100" s="5" t="n">
-        <f aca="false">seed_list!$B$3</f>
-        <v>149</v>
-      </c>
-      <c r="D100" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I100" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A100" s="3"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C101" s="5" t="n">
-        <f aca="false">seed_list!$B$4</f>
-        <v>48</v>
-      </c>
-      <c r="D101" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H101" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I101" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C102" s="5" t="n">
-        <f aca="false">seed_list!$B$5</f>
-        <v>270</v>
-      </c>
-      <c r="D102" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I102" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A102" s="3"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B103" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C103" s="5" t="n">
-        <f aca="false">seed_list!$B$6</f>
-        <v>714</v>
-      </c>
-      <c r="D103" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I103" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B104" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C104" s="5" t="n">
-        <f aca="false">seed_list!$B$7</f>
-        <v>339</v>
-      </c>
-      <c r="D104" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H104" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I104" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A104" s="3"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B105" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C105" s="5" t="n">
-        <f aca="false">seed_list!$B$8</f>
-        <v>240</v>
-      </c>
-      <c r="D105" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I105" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L105" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A105" s="3"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B106" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C106" s="5" t="n">
-        <f aca="false">seed_list!$B$9</f>
-        <v>804</v>
-      </c>
-      <c r="D106" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I106" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A106" s="3"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B107" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C107" s="5" t="n">
-        <f aca="false">seed_list!$B$10</f>
-        <v>531</v>
-      </c>
-      <c r="D107" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I107" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A107" s="3"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B108" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C108" s="5" t="n">
-        <f aca="false">seed_list!$B$11</f>
-        <v>348</v>
-      </c>
-      <c r="D108" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I108" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L108" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A108" s="3"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
@@ -8194,6 +6097,7 @@
       <c r="L171" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L108"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8201,6 +6105,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8215,18 +6120,18 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8241,7 +6146,7 @@
         <v>620</v>
       </c>
       <c r="D2" s="5" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
+        <f aca="false">com.sun.star.sheet.addin.analysis.getrandbetween(1,999)</f>
         <v>457</v>
       </c>
     </row>
@@ -8257,7 +6162,7 @@
         <v>149</v>
       </c>
       <c r="D3" s="5" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
+        <f aca="false">com.sun.star.sheet.addin.analysis.getrandbetween(1,999)</f>
         <v>815</v>
       </c>
     </row>
@@ -8273,7 +6178,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="5" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
+        <f aca="false">com.sun.star.sheet.addin.analysis.getrandbetween(1,999)</f>
         <v>185</v>
       </c>
     </row>
@@ -8289,7 +6194,7 @@
         <v>270</v>
       </c>
       <c r="D5" s="5" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
+        <f aca="false">com.sun.star.sheet.addin.analysis.getrandbetween(1,999)</f>
         <v>445</v>
       </c>
     </row>
@@ -8305,7 +6210,7 @@
         <v>714</v>
       </c>
       <c r="D6" s="5" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
+        <f aca="false">com.sun.star.sheet.addin.analysis.getrandbetween(1,999)</f>
         <v>699</v>
       </c>
     </row>
@@ -8321,7 +6226,7 @@
         <v>339</v>
       </c>
       <c r="D7" s="5" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
+        <f aca="false">com.sun.star.sheet.addin.analysis.getrandbetween(1,999)</f>
         <v>699</v>
       </c>
     </row>
@@ -8337,7 +6242,7 @@
         <v>240</v>
       </c>
       <c r="D8" s="5" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
+        <f aca="false">com.sun.star.sheet.addin.analysis.getrandbetween(1,999)</f>
         <v>273</v>
       </c>
     </row>
@@ -8353,7 +6258,7 @@
         <v>804</v>
       </c>
       <c r="D9" s="5" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
+        <f aca="false">com.sun.star.sheet.addin.analysis.getrandbetween(1,999)</f>
         <v>906</v>
       </c>
     </row>
@@ -8369,7 +6274,7 @@
         <v>531</v>
       </c>
       <c r="D10" s="5" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
+        <f aca="false">com.sun.star.sheet.addin.analysis.getrandbetween(1,999)</f>
         <v>978</v>
       </c>
     </row>
@@ -8385,7 +6290,7 @@
         <v>348</v>
       </c>
       <c r="D11" s="5" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
+        <f aca="false">com.sun.star.sheet.addin.analysis.getrandbetween(1,999)</f>
         <v>372</v>
       </c>
     </row>

--- a/evaluation/loop_exec_option.xlsx
+++ b/evaluation/loop_exec_option.xlsx
@@ -59,7 +59,7 @@
     <t xml:space="preserve">REPOSITORY</t>
   </si>
   <si>
-    <t xml:space="preserve">ish06b</t>
+    <t xml:space="preserve">ish08a</t>
   </si>
   <si>
     <t xml:space="preserve">default</t>
@@ -229,10 +229,10 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
@@ -312,7 +312,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
@@ -351,7 +351,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>15</v>
@@ -390,7 +390,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>15</v>
@@ -429,7 +429,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>15</v>
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>15</v>
@@ -507,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>15</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>15</v>
@@ -585,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>15</v>
@@ -624,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>15</v>
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>15</v>
@@ -702,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>15</v>
@@ -741,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>15</v>
@@ -780,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>15</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>15</v>
@@ -858,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>15</v>
@@ -897,7 +897,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>15</v>
@@ -936,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>15</v>
@@ -975,7 +975,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>15</v>
@@ -1014,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>15</v>
@@ -1092,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>15</v>
@@ -1714,7 +1714,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>815</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="D3" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>283</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="D4" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>471</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="D5" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>813</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="D6" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>198</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D7" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>673</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D8" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>6</v>
+        <v>929</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D9" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>862</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="D10" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>25</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="D11" s="5" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,999)</f>
-        <v>988</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
